--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01sem\MSMA\MSMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FB6FAE-BA04-475F-9866-D7B9406DC278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25967186-C2E3-4AF9-8631-526A9503D485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7090AE3-8C9B-4256-B23B-CCA1B5EABA89}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Wm</t>
   </si>
@@ -183,15 +183,22 @@
   </si>
   <si>
     <t>variação deltaC</t>
+  </si>
+  <si>
+    <t>disp MAX</t>
+  </si>
+  <si>
+    <t>deltaC MAX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000E+00"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -272,7 +279,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,13 +292,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -300,19 +313,14 @@
     <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Cor1" xfId="2" builtinId="30"/>
@@ -322,14 +330,17 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.000E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000E+00"/>
+      <numFmt numFmtId="165" formatCode="0.000E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -346,15 +357,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -525,37 +533,37 @@
                 <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-2.7795820797142465E-14</c:v>
+                  <c:v>-1.3608687728721447E-13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.223665663771397E-14</c:v>
+                  <c:v>-1.0886950182977157E-13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.6677492478285479E-14</c:v>
+                  <c:v>-8.1652126372328684E-14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.1118328318856985E-14</c:v>
+                  <c:v>-5.4434750914885787E-14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.5591641594284926E-15</c:v>
+                  <c:v>-2.7217375457442894E-14</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5591641594284926E-15</c:v>
+                  <c:v>2.7217375457442894E-14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1118328318856985E-14</c:v>
+                  <c:v>5.4434750914885787E-14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6677492478285479E-14</c:v>
+                  <c:v>8.1652126372328684E-14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.223665663771397E-14</c:v>
+                  <c:v>1.0886950182977157E-13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7795820797142465E-14</c:v>
+                  <c:v>1.3608687728721447E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,37 +996,37 @@
                 <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1.574355289950149E-15</c:v>
+                  <c:v>-1.0277280972730434E-14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.2594842319601191E-15</c:v>
+                  <c:v>-8.2218247781843482E-15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.4461317397008943E-16</c:v>
+                  <c:v>-6.1663685836382607E-15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.2974211598005956E-16</c:v>
+                  <c:v>-4.1109123890921741E-15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.1487105799002978E-16</c:v>
+                  <c:v>-2.055456194546087E-15</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1487105799002978E-16</c:v>
+                  <c:v>2.055456194546087E-15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2974211598005956E-16</c:v>
+                  <c:v>4.1109123890921741E-15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.4461317397008943E-16</c:v>
+                  <c:v>6.1663685836382607E-15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2594842319601191E-15</c:v>
+                  <c:v>8.2218247781843482E-15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.574355289950149E-15</c:v>
+                  <c:v>1.0277280972730434E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,7 +2447,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2475,24 +2483,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEDAFA66-C69A-4722-9126-6CA4ACFE5EFB}" name="Tabela1" displayName="Tabela1" ref="B2:E17" totalsRowShown="0">
   <autoFilter ref="B2:E17" xr:uid="{EEDAFA66-C69A-4722-9126-6CA4ACFE5EFB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{92C43EDE-D5D1-4C73-9F63-A6C9B9E6B74B}" name="Parâmetro" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{0A45D31F-4001-497C-A14B-B2FA86C064D2}" name="Valor" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{1D642D52-F282-4969-AC78-33BDA5DB6EF2}" name="Unidades" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{405C105C-668D-4BF0-8D11-4374ADB7CA74}" name="Descrição" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{92C43EDE-D5D1-4C73-9F63-A6C9B9E6B74B}" name="Parâmetro" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0A45D31F-4001-497C-A14B-B2FA86C064D2}" name="Valor" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{1D642D52-F282-4969-AC78-33BDA5DB6EF2}" name="Unidades" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{405C105C-668D-4BF0-8D11-4374ADB7CA74}" name="Descrição" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{760F5F13-D76C-4D1C-A0A4-3A53BB63FC73}" name="Tabela2" displayName="Tabela2" ref="L2:N13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{760F5F13-D76C-4D1C-A0A4-3A53BB63FC73}" name="Tabela2" displayName="Tabela2" ref="L2:N13" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="L2:N13" xr:uid="{760F5F13-D76C-4D1C-A0A4-3A53BB63FC73}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{79C0EDFE-2A29-4C81-8F5C-9AD5C5B233A4}" name="num_g" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{E4337CA2-35F4-488C-AA5D-500B9593B94A}" name="disp [m]" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{79C0EDFE-2A29-4C81-8F5C-9AD5C5B233A4}" name="num_g" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E4337CA2-35F4-488C-AA5D-500B9593B94A}" name="disp [m]" dataDxfId="1">
       <calculatedColumnFormula>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7145FE4A-674E-4031-8D76-9FF293531633}" name="deltaC [F]" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{7145FE4A-674E-4031-8D76-9FF293531633}" name="deltaC [F]" dataDxfId="0">
       <calculatedColumnFormula>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2800,7 +2808,7 @@
   <dimension ref="B2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2815,6 +2823,7 @@
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
@@ -2833,10 +2842,10 @@
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="14">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="14"/>
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2845,13 +2854,6 @@
       </c>
       <c r="N2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="15" cm="1">
-        <f t="array" ref="Q2">MAX(Tabela2[deltaC '[F']])-MIN(ABS(Tabela2[deltaC '[F']]))</f>
-        <v>1.574355289950149E-15</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -2870,21 +2872,28 @@
       <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="11">
         <f>C16*C5*10^-6*(C7*10^-6*C8*10^-6+C13*C10*10^-6*C11*10^-6)</f>
-        <v>1.0210991999999999E-9</v>
-      </c>
-      <c r="I3" s="9"/>
+        <v>2.4996239999999997E-9</v>
+      </c>
+      <c r="I3" s="11"/>
       <c r="L3" s="1">
         <v>-5</v>
       </c>
       <c r="M3" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>-2.7795820797142465E-14</v>
+        <v>-1.3608687728721447E-13</v>
       </c>
       <c r="N3" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>-1.574355289950149E-15</v>
+        <v>-1.0277280972730434E-14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="15">
+        <f>MAX(Tabela2[disp '[m']])</f>
+        <v>1.3608687728721447E-13</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -2892,7 +2901,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>36</v>
@@ -2903,21 +2912,28 @@
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="12">
         <f>2*C15*C5*(C4/C3)^3</f>
-        <v>1800049.7688178974</v>
-      </c>
-      <c r="I4" s="10"/>
+        <v>900024.88440894871</v>
+      </c>
+      <c r="I4" s="12"/>
       <c r="L4" s="1">
         <v>-4</v>
       </c>
       <c r="M4" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>-2.223665663771397E-14</v>
+        <v>-1.0886950182977157E-13</v>
       </c>
       <c r="N4" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>-1.2594842319601191E-15</v>
+        <v>-8.2218247781843482E-15</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="16">
+        <f>MAX(Tabela2[deltaC '[F']])</f>
+        <v>1.0277280972730434E-14</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
@@ -2925,7 +2941,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>36</v>
@@ -2940,11 +2956,18 @@
       </c>
       <c r="M5" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>-1.6677492478285479E-14</v>
+        <v>-8.1652126372328684E-14</v>
       </c>
       <c r="N5" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>-9.4461317397008943E-16</v>
+        <v>-6.1663685836382607E-15</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="15" cm="1">
+        <f t="array" ref="Q5">MAX(Tabela2[deltaC '[F']])-MIN(ABS(Tabela2[deltaC '[F']]))</f>
+        <v>1.0277280972730434E-14</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
@@ -2953,21 +2976,21 @@
       <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="13">
         <f>(1/2*PI())*SQRT(H4/H3)</f>
-        <v>65952029.675038807</v>
-      </c>
-      <c r="I6" s="12"/>
+        <v>29806418.348746587</v>
+      </c>
+      <c r="I6" s="13"/>
       <c r="L6" s="1">
         <v>-2</v>
       </c>
       <c r="M6" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>-1.1118328318856985E-14</v>
+        <v>-5.4434750914885787E-14</v>
       </c>
       <c r="N6" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>-6.2974211598005956E-16</v>
+        <v>-4.1109123890921741E-15</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -2975,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>733</v>
+        <v>133</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>36</v>
@@ -2986,21 +3009,21 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="12">
         <f>C17*C13*C11*C5/C12</f>
-        <v>8.4959999999999988E-8</v>
-      </c>
-      <c r="I7" s="10"/>
+        <v>1.1327999999999998E-7</v>
+      </c>
+      <c r="I7" s="12"/>
       <c r="L7" s="1">
         <v>-1</v>
       </c>
       <c r="M7" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>-5.5591641594284926E-15</v>
+        <v>-2.7217375457442894E-14</v>
       </c>
       <c r="N7" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>-3.1487105799002978E-16</v>
+        <v>-2.055456194546087E-15</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
@@ -3008,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>36</v>
@@ -3016,14 +3039,14 @@
       <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="9">
         <v>0</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="10">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
         <v>0</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="10">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
         <v>0</v>
       </c>
@@ -3037,11 +3060,11 @@
       </c>
       <c r="M9" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>5.5591641594284926E-15</v>
+        <v>2.7217375457442894E-14</v>
       </c>
       <c r="N9" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>3.1487105799002978E-16</v>
+        <v>2.055456194546087E-15</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
@@ -3062,11 +3085,11 @@
       </c>
       <c r="M10" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>1.1118328318856985E-14</v>
+        <v>5.4434750914885787E-14</v>
       </c>
       <c r="N10" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>6.2974211598005956E-16</v>
+        <v>4.1109123890921741E-15</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
@@ -3087,11 +3110,11 @@
       </c>
       <c r="M11" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>1.6677492478285479E-14</v>
+        <v>8.1652126372328684E-14</v>
       </c>
       <c r="N11" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>9.4461317397008943E-16</v>
+        <v>6.1663685836382607E-15</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
@@ -3112,11 +3135,11 @@
       </c>
       <c r="M12" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>2.223665663771397E-14</v>
+        <v>1.0886950182977157E-13</v>
       </c>
       <c r="N12" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>1.2594842319601191E-15</v>
+        <v>8.2218247781843482E-15</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
@@ -3124,7 +3147,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>40</v>
@@ -3137,11 +3160,11 @@
       </c>
       <c r="M13" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>2.7795820797142465E-14</v>
+        <v>1.3608687728721447E-13</v>
       </c>
       <c r="N13" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>1.574355289950149E-15</v>
+        <v>1.0277280972730434E-14</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">

--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01sem\MSMA\MSMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25967186-C2E3-4AF9-8631-526A9503D485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109B98F8-2DD1-4B6B-9DDB-06E52D5F8020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7090AE3-8C9B-4256-B23B-CCA1B5EABA89}"/>
+    <workbookView xWindow="19090" yWindow="-890" windowWidth="19420" windowHeight="10420" xr2:uid="{F7090AE3-8C9B-4256-B23B-CCA1B5EABA89}"/>
   </bookViews>
   <sheets>
     <sheet name="Param" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
-    <numFmt numFmtId="168" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -307,6 +307,8 @@
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -319,8 +321,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Cor1" xfId="2" builtinId="30"/>
@@ -533,37 +533,37 @@
                 <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1.3608687728721447E-13</c:v>
+                  <c:v>-1.8555917607730924E-13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0886950182977157E-13</c:v>
+                  <c:v>-1.4844734086184739E-13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.1652126372328684E-14</c:v>
+                  <c:v>-1.1133550564638554E-13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.4434750914885787E-14</c:v>
+                  <c:v>-7.4223670430923695E-14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.7217375457442894E-14</c:v>
+                  <c:v>-3.7111835215461847E-14</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7217375457442894E-14</c:v>
+                  <c:v>3.7111835215461847E-14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4434750914885787E-14</c:v>
+                  <c:v>7.4223670430923695E-14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1652126372328684E-14</c:v>
+                  <c:v>1.1133550564638554E-13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0886950182977157E-13</c:v>
+                  <c:v>1.4844734086184739E-13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3608687728721447E-13</c:v>
+                  <c:v>1.8555917607730924E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,37 +996,37 @@
                 <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1.0277280972730434E-14</c:v>
+                  <c:v>-4.2040286932075178E-14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.2218247781843482E-15</c:v>
+                  <c:v>-3.3632229545660137E-14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.1663685836382607E-15</c:v>
+                  <c:v>-2.52241721592451E-14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.1109123890921741E-15</c:v>
+                  <c:v>-1.6816114772830069E-14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.055456194546087E-15</c:v>
+                  <c:v>-8.4080573864150343E-15</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.055456194546087E-15</c:v>
+                  <c:v>8.4080573864150343E-15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1109123890921741E-15</c:v>
+                  <c:v>1.6816114772830069E-14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1663685836382607E-15</c:v>
+                  <c:v>2.52241721592451E-14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2218247781843482E-15</c:v>
+                  <c:v>3.3632229545660137E-14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0277280972730434E-14</c:v>
+                  <c:v>4.2040286932075178E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2807,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26784420-9DAD-4E1D-BB73-6A5D2748784E}">
   <dimension ref="B2:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2820,8 +2820,8 @@
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="8" width="9.140625" customWidth="1"/>
     <col min="11" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2842,10 +2842,10 @@
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="16">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="16"/>
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2872,28 +2872,28 @@
       <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="13">
         <f>C16*C5*10^-6*(C7*10^-6*C8*10^-6+C13*C10*10^-6*C11*10^-6)</f>
-        <v>2.4996239999999997E-9</v>
-      </c>
-      <c r="I3" s="11"/>
+        <v>3.4083239999999997E-9</v>
+      </c>
+      <c r="I3" s="13"/>
       <c r="L3" s="1">
         <v>-5</v>
       </c>
       <c r="M3" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>-1.3608687728721447E-13</v>
+        <v>-1.8555917607730924E-13</v>
       </c>
       <c r="N3" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>-1.0277280972730434E-14</v>
+        <v>-4.2040286932075178E-14</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="11">
         <f>MAX(Tabela2[disp '[m']])</f>
-        <v>1.3608687728721447E-13</v>
+        <v>1.8555917607730924E-13</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -2912,28 +2912,28 @@
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="14">
         <f>2*C15*C5*(C4/C3)^3</f>
         <v>900024.88440894871</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="14"/>
       <c r="L4" s="1">
         <v>-4</v>
       </c>
       <c r="M4" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>-1.0886950182977157E-13</v>
+        <v>-1.4844734086184739E-13</v>
       </c>
       <c r="N4" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>-8.2218247781843482E-15</v>
+        <v>-3.3632229545660137E-14</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="12">
         <f>MAX(Tabela2[deltaC '[F']])</f>
-        <v>1.0277280972730434E-14</v>
+        <v>4.2040286932075178E-14</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
@@ -2956,18 +2956,18 @@
       </c>
       <c r="M5" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>-8.1652126372328684E-14</v>
+        <v>-1.1133550564638554E-13</v>
       </c>
       <c r="N5" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>-6.1663685836382607E-15</v>
+        <v>-2.52241721592451E-14</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="15" cm="1">
+      <c r="Q5" s="11" cm="1">
         <f t="array" ref="Q5">MAX(Tabela2[deltaC '[F']])-MIN(ABS(Tabela2[deltaC '[F']]))</f>
-        <v>1.0277280972730434E-14</v>
+        <v>4.2040286932075178E-14</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
@@ -2976,21 +2976,21 @@
       <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="15">
         <f>(1/2*PI())*SQRT(H4/H3)</f>
-        <v>29806418.348746587</v>
-      </c>
-      <c r="I6" s="13"/>
+        <v>25525643.49198414</v>
+      </c>
+      <c r="I6" s="15"/>
       <c r="L6" s="1">
         <v>-2</v>
       </c>
       <c r="M6" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>-5.4434750914885787E-14</v>
+        <v>-7.4223670430923695E-14</v>
       </c>
       <c r="N6" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>-4.1109123890921741E-15</v>
+        <v>-1.6816114772830069E-14</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -3009,21 +3009,21 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="14">
         <f>C17*C13*C11*C5/C12</f>
-        <v>1.1327999999999998E-7</v>
-      </c>
-      <c r="I7" s="12"/>
+        <v>3.3983999999999995E-7</v>
+      </c>
+      <c r="I7" s="14"/>
       <c r="L7" s="1">
         <v>-1</v>
       </c>
       <c r="M7" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>-2.7217375457442894E-14</v>
+        <v>-3.7111835215461847E-14</v>
       </c>
       <c r="N7" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>-2.055456194546087E-15</v>
+        <v>-8.4080573864150343E-15</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>36</v>
@@ -3060,11 +3060,11 @@
       </c>
       <c r="M9" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>2.7217375457442894E-14</v>
+        <v>3.7111835215461847E-14</v>
       </c>
       <c r="N9" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>2.055456194546087E-15</v>
+        <v>8.4080573864150343E-15</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
@@ -3085,11 +3085,11 @@
       </c>
       <c r="M10" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>5.4434750914885787E-14</v>
+        <v>7.4223670430923695E-14</v>
       </c>
       <c r="N10" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>4.1109123890921741E-15</v>
+        <v>1.6816114772830069E-14</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
@@ -3110,11 +3110,11 @@
       </c>
       <c r="M11" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>8.1652126372328684E-14</v>
+        <v>1.1133550564638554E-13</v>
       </c>
       <c r="N11" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>6.1663685836382607E-15</v>
+        <v>2.52241721592451E-14</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
@@ -3135,11 +3135,11 @@
       </c>
       <c r="M12" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>1.0886950182977157E-13</v>
+        <v>1.4844734086184739E-13</v>
       </c>
       <c r="N12" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>8.2218247781843482E-15</v>
+        <v>3.3632229545660137E-14</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
@@ -3147,7 +3147,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>40</v>
@@ -3160,11 +3160,11 @@
       </c>
       <c r="M13" s="7">
         <f>Param!$H$3*Tabela2[[#This Row],[num_g]]*Param!$H$2/Param!$H$4</f>
-        <v>1.3608687728721447E-13</v>
+        <v>1.8555917607730924E-13</v>
       </c>
       <c r="N13" s="7">
         <f>2*Param!$H$7*Tabela2[[#This Row],[disp '[m']]]/(Param!$C$12*10^-6)</f>
-        <v>1.0277280972730434E-14</v>
+        <v>4.2040286932075178E-14</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
